--- a/xlsx/执政官_intext.xlsx
+++ b/xlsx/执政官_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>政策_政策_政治_执政官</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9C%9D</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E5%AE%98_(%E9%9B%85%E5%85%B8)</t>
   </si>
   <si>
-    <t>執政官 (雅典)</t>
+    <t>执政官 (雅典)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E6%94%BF%E5%AE%98_(%E7%BD%97%E9%A9%AC)</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第一共和國</t>
+    <t>法兰西第一共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%89%A7%E6%94%BF</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE</t>
   </si>
   <si>
-    <t>聖馬力諾</t>
+    <t>圣马力诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE%E5%9F%B7%E6%94%BF%E5%AE%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聖馬力諾執政官列表</t>
+    <t>圣马力诺执政官列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
+    <t>荷兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9C%81%E7%9D%A3</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%E6%B4%BE</t>
   </si>
   <si>
-    <t>保羅派</t>
+    <t>保罗派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%88%A9%E6%A2%AD%E9%BB%91</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9F%A5%E6%A8%9E%E5%AF%86%E9%99%A2%E4%BA%8B</t>
   </si>
   <si>
-    <t>同知樞密院事</t>
+    <t>同知枢密院事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%A2%E5%AF%86%E5%89%AF%E4%BD%BF</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E7%88%AD%E9%9C%B8</t>
   </si>
   <si>
-    <t>星際爭霸</t>
+    <t>星际争霸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Travian</t>

--- a/xlsx/执政官_intext.xlsx
+++ b/xlsx/执政官_intext.xlsx
@@ -29,7 +29,7 @@
     <t>漢語</t>
   </si>
   <si>
-    <t>政策_政策_政治_执政官</t>
+    <t>体育运动_体育运动_古罗马_执政官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
